--- a/data/trans_orig/P78C7_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C7_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F68ECECC-1335-408E-B300-5E5825C6AB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEC7121-6F8F-4DCA-A896-2FD8D8F87D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F6612BF-7116-4A6C-BB3D-25C5FDD1E433}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C610DF96-A894-453B-960E-A6646CC74E84}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -134,28 +134,28 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -570,7 +570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A99B00-5EA2-41DE-972A-493C2375836F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC51C26-29B9-449F-8BB3-C4BDCE6D154A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1523</v>
+        <v>1428</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>1523</v>
+        <v>1428</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>19</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>1523</v>
+        <v>1428</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>1523</v>
+        <v>1428</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>19</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1514,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="7">
-        <v>1970</v>
+        <v>1897</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>1126</v>
+        <v>1060</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>19</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1126</v>
+        <v>1060</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>19</v>
@@ -1635,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>1126</v>
+        <v>1060</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>1126</v>
+        <v>1060</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -1686,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>9548</v>
+        <v>7987</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -1701,7 +1701,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>7864</v>
+        <v>6673</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>19</v>
@@ -1716,7 +1716,7 @@
         <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>17413</v>
+        <v>14661</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>19</v>
@@ -1788,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="7">
-        <v>9548</v>
+        <v>7987</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>21</v>
@@ -1803,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="7">
-        <v>7864</v>
+        <v>6673</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -1818,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="N27" s="7">
-        <v>17413</v>
+        <v>14661</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -1841,7 +1841,7 @@
         <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>10674</v>
+        <v>9047</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>32</v>
@@ -1856,7 +1856,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>7864</v>
+        <v>6673</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>19</v>
@@ -1871,7 +1871,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="7">
-        <v>18538</v>
+        <v>15721</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>34</v>
@@ -1892,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>3492</v>
+        <v>3325</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>36</v>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>3493</v>
+        <v>3325</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>38</v>
@@ -1943,7 +1943,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>14166</v>
+        <v>12372</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -1958,7 +1958,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>7864</v>
+        <v>6673</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -1973,7 +1973,7 @@
         <v>21</v>
       </c>
       <c r="N30" s="7">
-        <v>22031</v>
+        <v>19046</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
